--- a/ArcTk/23FR170_2249.xlsx
+++ b/ArcTk/23FR170_2249.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="205">
   <si>
     <t>Site Number</t>
   </si>
@@ -199,27 +199,12 @@
     <t>95N 125E, Level 3, SD 12"-18"</t>
   </si>
   <si>
+    <t>1000N 500E</t>
+  </si>
+  <si>
     <t>90N 125E, Level 2, SD 6"-12"</t>
   </si>
   <si>
-    <t>90N 120E, Level 5, SD 24"-30"</t>
-  </si>
-  <si>
-    <t>90N 120E, SD 30", 24"N 15"E</t>
-  </si>
-  <si>
-    <t>90N 120E, Level 4, SD 20", 17"N 14"E</t>
-  </si>
-  <si>
-    <t>90N 120E, SD 9", 6"E 12"S</t>
-  </si>
-  <si>
-    <t>95N 130E, Level 3, SD 12"-18"</t>
-  </si>
-  <si>
-    <t>1000N 500E</t>
-  </si>
-  <si>
     <t>48;</t>
   </si>
   <si>
@@ -547,6 +532,9 @@
     <t>1964-04-22</t>
   </si>
   <si>
+    <t>1964-01-03</t>
+  </si>
+  <si>
     <t>Sandstone</t>
   </si>
   <si>
@@ -629,6 +617,9 @@
   </si>
   <si>
     <t>Casing</t>
+  </si>
+  <si>
+    <t>Abrader</t>
   </si>
   <si>
     <t>Count Total</t>
@@ -998,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,18 +1103,18 @@
         <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1132,21 +1123,21 @@
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L6" s="1">
         <v>111</v>
       </c>
       <c r="M6" s="1">
-        <v>19196.5</v>
+        <v>19014</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1155,7 +1146,7 @@
         <v>97</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" s="1">
         <v>18</v>
@@ -1166,10 +1157,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -1178,24 +1169,24 @@
         <v>425.5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L8" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M8" s="1">
-        <v>4017.5</v>
+        <v>3979.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
@@ -1204,7 +1195,7 @@
         <v>911</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L9" s="1">
         <v>44</v>
@@ -1215,10 +1206,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
@@ -1227,21 +1218,21 @@
         <v>514.5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L10" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1">
-        <v>384.5</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1250,7 +1241,7 @@
         <v>754.5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L11" s="1">
         <v>22</v>
@@ -1261,19 +1252,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I12" s="1">
         <v>134</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L12" s="1">
         <v>3</v>
@@ -1284,19 +1275,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I13" s="1">
         <v>95.5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L13" s="1">
         <v>62</v>
@@ -1307,19 +1298,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I14" s="1">
         <v>128</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -1330,13 +1321,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1345,7 +1336,7 @@
         <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
@@ -1356,13 +1347,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H16" s="1">
         <v>7</v>
@@ -1371,24 +1362,24 @@
         <v>41</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L16" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1">
-        <v>6468.5</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H17" s="1">
         <v>7</v>
@@ -1397,24 +1388,24 @@
         <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>241.5</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="3:13">
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H18" s="1">
         <v>6</v>
@@ -1423,24 +1414,24 @@
         <v>36.5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L18" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>65.5</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H19" s="1">
         <v>9</v>
@@ -1449,24 +1440,24 @@
         <v>33.5</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8</v>
       </c>
       <c r="M19" s="1">
-        <v>183</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H20" s="1">
         <v>10</v>
@@ -1475,21 +1466,21 @@
         <v>46</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="1">
-        <v>25</v>
+        <v>195</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="M20" s="1">
-        <v>1415.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="21" spans="3:13">
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1498,21 +1489,21 @@
         <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="L21" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1">
-        <v>358</v>
+        <v>1415.5</v>
       </c>
     </row>
     <row r="22" spans="3:13">
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1521,21 +1512,21 @@
         <v>97</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L22" s="1">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M22" s="1">
-        <v>2739</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -1544,24 +1535,24 @@
         <v>425.5</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="L23" s="1">
+        <v>28</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>2241.5</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1">
         <v>13</v>
@@ -1572,8 +1563,8 @@
       <c r="K24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="1">
-        <v>1</v>
+      <c r="L24" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -1581,10 +1572,10 @@
     </row>
     <row r="25" spans="3:13">
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="1">
         <v>50</v>
@@ -1593,21 +1584,21 @@
         <v>514.5</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="3:13">
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="1">
         <v>5</v>
@@ -1616,93 +1607,93 @@
         <v>754.5</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L26" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
-        <v>2064.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="3:13">
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1">
         <v>134</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L27" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1">
-        <v>1640.5</v>
+        <v>2030.5</v>
       </c>
     </row>
     <row r="28" spans="3:13">
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I28" s="1">
         <v>95.5</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L28" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M28" s="1">
-        <v>58</v>
+        <v>1640.5</v>
       </c>
     </row>
     <row r="29" spans="3:13">
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I29" s="1">
         <v>128</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6</v>
       </c>
       <c r="M29" s="1">
-        <v>416.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -1711,24 +1702,24 @@
         <v>26</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L30" s="1">
-        <v>158</v>
+        <v>184</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="M30" s="1">
-        <v>2003</v>
+        <v>416.5</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H31" s="1">
         <v>7</v>
@@ -1737,24 +1728,24 @@
         <v>41</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L31" s="1">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="M31" s="1">
-        <v>229.5</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="32" spans="3:13">
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H32" s="1">
         <v>7</v>
@@ -1763,24 +1754,24 @@
         <v>20</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L32" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="M32" s="1">
-        <v>12</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H33" s="1">
         <v>6</v>
@@ -1789,24 +1780,24 @@
         <v>36.5</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H34" s="1">
         <v>9</v>
@@ -1814,16 +1805,25 @@
       <c r="I34" s="1">
         <v>33.5</v>
       </c>
+      <c r="K34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H35" s="1">
         <v>10</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="37" spans="1:13">
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H37" s="1">
         <v>5</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H39" s="1">
         <v>3</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="40" spans="1:13">
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H40" s="1">
         <v>3</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H41" s="1">
         <v>5</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H42" s="1">
         <v>2</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H44" s="1">
         <v>2</v>
@@ -1963,13 +1963,13 @@
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H45" s="1">
         <v>8</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="G46" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -1994,13 +1994,13 @@
         <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H47" s="1">
         <v>2</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="G48" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H48" s="1">
         <v>3</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H49" s="1">
         <v>4</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I50" s="1">
         <v>416.5</v>
@@ -2053,16 +2053,16 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H51" s="1">
         <v>4</v>
@@ -2076,16 +2076,16 @@
         <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I52" s="1">
         <v>152</v>
@@ -2096,16 +2096,16 @@
         <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I53" s="1">
         <v>80</v>
@@ -2116,16 +2116,16 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H54" s="1">
         <v>19</v>
@@ -2139,16 +2139,16 @@
         <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I55" s="1">
         <v>681</v>
@@ -2159,16 +2159,16 @@
         <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I56" s="1">
         <v>612.5</v>
@@ -2179,16 +2179,16 @@
         <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
@@ -2202,16 +2202,16 @@
         <v>24</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H58" s="1">
         <v>12</v>
@@ -2228,16 +2228,16 @@
         <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H59" s="1">
         <v>3</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="G60" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="G61" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H61" s="1">
         <v>2</v>
@@ -2273,16 +2273,16 @@
         <v>24</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H62" s="1">
         <v>2</v>
@@ -2296,16 +2296,16 @@
         <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I63" s="1">
         <v>48</v>
@@ -2316,16 +2316,16 @@
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I64" s="1">
         <v>699</v>
@@ -2336,16 +2336,16 @@
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H65" s="1">
         <v>11</v>
@@ -2359,16 +2359,16 @@
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H66" s="1">
         <v>2</v>
@@ -2382,16 +2382,16 @@
         <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I67" s="1">
         <v>661.5</v>
@@ -2402,16 +2402,16 @@
         <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H68" s="1">
         <v>2</v>
@@ -2425,16 +2425,16 @@
         <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I69" s="1">
         <v>416</v>
@@ -2445,16 +2445,16 @@
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
@@ -2468,16 +2468,16 @@
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H71" s="1">
         <v>10</v>
@@ -2491,16 +2491,16 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H72" s="1">
         <v>4</v>
@@ -2514,16 +2514,16 @@
         <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H73" s="1">
         <v>4</v>
@@ -2537,19 +2537,19 @@
         <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I74" s="1">
         <v>117</v>
@@ -2560,19 +2560,19 @@
         <v>26</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H75" s="1">
         <v>2</v>
@@ -2586,19 +2586,19 @@
         <v>26</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H76" s="1">
         <v>2</v>
@@ -2612,19 +2612,19 @@
         <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I77" s="1">
         <v>229</v>
@@ -2635,19 +2635,19 @@
         <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H78" s="1">
         <v>2</v>
@@ -2661,16 +2661,16 @@
         <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -2687,19 +2687,19 @@
         <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H80" s="1">
         <v>2</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="81" spans="2:9">
       <c r="G81" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H81" s="1">
         <v>1</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="82" spans="2:9">
       <c r="G82" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H82" s="1">
         <v>1</v>
@@ -2735,19 +2735,19 @@
         <v>28</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I83" s="1">
         <v>48.5</v>
@@ -2758,19 +2758,19 @@
         <v>28</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -2784,19 +2784,19 @@
         <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H85" s="1">
         <v>7</v>
@@ -2810,19 +2810,19 @@
         <v>28</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I86" s="1">
         <v>110.5</v>
@@ -2833,19 +2833,19 @@
         <v>28</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H87" s="1">
         <v>11</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H88" s="1">
         <v>2</v>
@@ -2885,19 +2885,19 @@
         <v>28</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I89" s="1">
         <v>38.5</v>
@@ -2908,19 +2908,19 @@
         <v>28</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
@@ -2934,19 +2934,19 @@
         <v>29</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I91" s="1">
         <v>36.5</v>
@@ -2957,19 +2957,19 @@
         <v>29</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H92" s="1">
         <v>1</v>
@@ -2983,19 +2983,19 @@
         <v>29</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H93" s="1">
         <v>6</v>
@@ -3009,19 +3009,19 @@
         <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H94" s="1">
         <v>11</v>
@@ -3035,19 +3035,19 @@
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H95" s="1">
         <v>9</v>
@@ -3061,19 +3061,19 @@
         <v>29</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H96" s="1">
         <v>1</v>
@@ -3087,19 +3087,19 @@
         <v>29</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H97" s="1">
         <v>1</v>
@@ -3113,19 +3113,19 @@
         <v>29</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H98" s="1">
         <v>9</v>
@@ -3139,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H99" s="1">
         <v>5</v>
@@ -3153,7 +3153,7 @@
         <v>30</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I100" s="1">
         <v>163.5</v>
@@ -3164,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H101" s="1">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>30</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H102" s="1">
         <v>1</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="G103" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H103" s="1">
         <v>1</v>
@@ -3206,19 +3206,19 @@
         <v>31</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H104" s="1">
         <v>2</v>
@@ -3232,19 +3232,19 @@
         <v>31</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
@@ -3258,19 +3258,19 @@
         <v>31</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H106" s="1">
         <v>1</v>
@@ -3284,19 +3284,19 @@
         <v>31</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H107" s="1">
         <v>15</v>
@@ -3310,19 +3310,19 @@
         <v>31</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H108" s="1">
         <v>6</v>
@@ -3336,19 +3336,19 @@
         <v>31</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H109" s="1">
         <v>3</v>
@@ -3362,19 +3362,19 @@
         <v>31</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H110" s="1">
         <v>3</v>
@@ -3388,16 +3388,16 @@
         <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H111" s="1">
         <v>1</v>
@@ -3411,19 +3411,19 @@
         <v>31</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H112" s="1">
         <v>4</v>
@@ -3437,19 +3437,19 @@
         <v>31</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H113" s="1">
         <v>6</v>
@@ -3463,19 +3463,19 @@
         <v>33</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H114" s="1">
         <v>7</v>
@@ -3489,19 +3489,19 @@
         <v>33</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I115" s="1">
         <v>182.5</v>
@@ -3512,16 +3512,16 @@
         <v>34</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H116" s="1">
         <v>1</v>
@@ -3535,16 +3535,16 @@
         <v>35</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I117" s="1">
         <v>602.5</v>
@@ -3555,16 +3555,16 @@
         <v>35</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I118" s="1">
         <v>640</v>
@@ -3575,16 +3575,16 @@
         <v>35</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I119" s="1">
         <v>931.5</v>
@@ -3595,16 +3595,16 @@
         <v>35</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H120" s="1">
         <v>2</v>
@@ -3621,16 +3621,16 @@
         <v>35</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H121" s="1">
         <v>2</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="G122" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H122" s="1">
         <v>1</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="G123" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H123" s="1">
         <v>10</v>
@@ -3666,16 +3666,16 @@
         <v>35</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H124" s="1">
         <v>2</v>
@@ -3689,16 +3689,16 @@
         <v>36</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H125" s="1">
         <v>1</v>
@@ -3712,16 +3712,16 @@
         <v>37</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H126" s="1">
         <v>1</v>
@@ -3735,16 +3735,16 @@
         <v>38</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H127" s="1">
         <v>1</v>
@@ -3758,16 +3758,16 @@
         <v>39</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H128" s="1">
         <v>1</v>
@@ -3781,16 +3781,16 @@
         <v>40</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H129" s="1">
         <v>1</v>
@@ -3804,16 +3804,16 @@
         <v>35</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H130" s="1">
         <v>3</v>
@@ -3827,16 +3827,16 @@
         <v>35</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H131" s="1">
         <v>3</v>
@@ -3850,16 +3850,16 @@
         <v>35</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H132" s="1">
         <v>8</v>
@@ -3873,16 +3873,16 @@
         <v>35</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I133" s="1">
         <v>98</v>
@@ -3893,16 +3893,16 @@
         <v>35</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H134" s="1">
         <v>3</v>
@@ -3916,16 +3916,16 @@
         <v>35</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I135" s="1">
         <v>153</v>
@@ -3936,16 +3936,16 @@
         <v>35</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I136" s="1">
         <v>201</v>
@@ -3956,16 +3956,16 @@
         <v>35</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H137" s="1">
         <v>3</v>
@@ -3982,16 +3982,16 @@
         <v>41</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H138" s="1">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="G139" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H139" s="1">
         <v>1</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="G140" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H140" s="1">
         <v>1</v>
@@ -4027,16 +4027,16 @@
         <v>42</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H141" s="1">
         <v>3</v>
@@ -4053,16 +4053,16 @@
         <v>42</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H142" s="1">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="G143" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H143" s="1">
         <v>1</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="G144" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H144" s="1">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="G145" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H145" s="1">
         <v>3</v>
@@ -4109,16 +4109,16 @@
         <v>42</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I146" s="1">
         <v>175.5</v>
@@ -4132,16 +4132,16 @@
         <v>42</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H147" s="1">
         <v>5</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="G148" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H148" s="1">
         <v>1</v>
@@ -4166,16 +4166,16 @@
         <v>42</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H149" s="1">
         <v>1</v>
@@ -4189,16 +4189,16 @@
         <v>42</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H150" s="1">
         <v>1</v>
@@ -4212,16 +4212,16 @@
         <v>42</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I151" s="1">
         <v>20.5</v>
@@ -4232,16 +4232,16 @@
         <v>42</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H152" s="1">
         <v>3</v>
@@ -4255,10 +4255,10 @@
         <v>43</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H153" s="1">
         <v>1</v>
@@ -4272,16 +4272,16 @@
         <v>42</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H154" s="1">
         <v>1</v>
@@ -4295,10 +4295,10 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H155" s="1">
         <v>1</v>
@@ -4312,16 +4312,16 @@
         <v>42</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H156" s="1">
         <v>6</v>
@@ -4335,16 +4335,16 @@
         <v>42</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H157" s="1">
         <v>6</v>
@@ -4358,16 +4358,16 @@
         <v>42</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I158" s="1">
         <v>31</v>
@@ -4378,16 +4378,16 @@
         <v>42</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H159" s="1">
         <v>2</v>
@@ -4401,19 +4401,19 @@
         <v>45</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I160" s="1">
         <v>148</v>
@@ -4424,19 +4424,19 @@
         <v>45</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I161" s="1">
         <v>115.5</v>
@@ -4447,19 +4447,19 @@
         <v>45</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I162" s="1">
         <v>195</v>
@@ -4470,19 +4470,19 @@
         <v>45</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I163" s="1">
         <v>256.5</v>
@@ -4493,16 +4493,16 @@
         <v>46</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I164" s="1">
         <v>753.5</v>
@@ -4513,16 +4513,16 @@
         <v>46</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I165" s="1">
         <v>585</v>
@@ -4533,16 +4533,16 @@
         <v>46</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I166" s="1">
         <v>71</v>
@@ -4553,16 +4553,16 @@
         <v>46</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I167" s="1">
         <v>77.5</v>
@@ -4573,16 +4573,16 @@
         <v>46</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I168" s="1">
         <v>24</v>
@@ -4596,16 +4596,16 @@
         <v>46</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I169" s="1">
         <v>559</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="G170" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H170" s="1">
         <v>5</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="G171" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H171" s="1">
         <v>7</v>
@@ -4638,16 +4638,16 @@
         <v>45</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H172" s="1">
         <v>7</v>
@@ -4664,16 +4664,16 @@
         <v>45</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I173" s="1">
         <v>793</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="G174" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H174" s="1">
         <v>3</v>
@@ -4698,16 +4698,16 @@
         <v>45</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H175" s="1">
         <v>1</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="G176" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H176" s="1">
         <v>1</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="177" spans="1:9">
       <c r="C177" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H177" s="1">
         <v>1</v>
@@ -4749,19 +4749,19 @@
         <v>47</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I178" s="1">
         <v>1006</v>
@@ -4772,19 +4772,19 @@
         <v>47</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H179" s="1">
         <v>1</v>
@@ -4798,19 +4798,19 @@
         <v>47</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I180" s="1">
         <v>55.5</v>
@@ -4821,19 +4821,19 @@
         <v>47</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="H181" s="1">
         <v>6</v>
@@ -4847,19 +4847,19 @@
         <v>47</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H182" s="1">
         <v>1</v>
@@ -4873,19 +4873,19 @@
         <v>47</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I183" s="1">
         <v>0.5</v>
@@ -4896,19 +4896,19 @@
         <v>47</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I184" s="1">
         <v>1</v>
@@ -4919,19 +4919,19 @@
         <v>47</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I185" s="1">
         <v>0.5</v>
@@ -4942,19 +4942,19 @@
         <v>47</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H186" s="1">
         <v>1</v>
@@ -4971,13 +4971,13 @@
         <v>48</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I187" s="1">
         <v>105.5</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="G188" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H188" s="1">
         <v>4</v>
@@ -4999,19 +4999,19 @@
         <v>49</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I189" s="1">
         <v>269</v>
@@ -5022,19 +5022,19 @@
         <v>50</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H190" s="1">
         <v>1</v>
@@ -5048,19 +5048,19 @@
         <v>50</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H191" s="1">
         <v>2</v>
@@ -5074,19 +5074,19 @@
         <v>50</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I192" s="1">
         <v>1.5</v>
@@ -5097,19 +5097,19 @@
         <v>50</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H193" s="1">
         <v>5</v>
@@ -5123,19 +5123,19 @@
         <v>50</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I194" s="1">
         <v>390.5</v>
@@ -5146,19 +5146,19 @@
         <v>50</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H195" s="1">
         <v>1</v>
@@ -5172,19 +5172,19 @@
         <v>51</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I196" s="1">
         <v>63</v>
@@ -5195,19 +5195,19 @@
         <v>51</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H197" s="1">
         <v>9</v>
@@ -5224,19 +5224,19 @@
         <v>51</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H198" s="1">
         <v>2</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="G199" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H199" s="1">
         <v>1</v>
@@ -5261,19 +5261,19 @@
         <v>51</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H200" s="1">
         <v>4</v>
@@ -5287,19 +5287,19 @@
         <v>51</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H201" s="1">
         <v>8</v>
@@ -5313,19 +5313,19 @@
         <v>52</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I202" s="1">
         <v>25.5</v>
@@ -5336,19 +5336,19 @@
         <v>52</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H203" s="1">
         <v>1</v>
@@ -5362,19 +5362,19 @@
         <v>52</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I204" s="1">
         <v>31</v>
@@ -5385,19 +5385,19 @@
         <v>52</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I205" s="1">
         <v>45.5</v>
@@ -5408,19 +5408,19 @@
         <v>52</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H206" s="1">
         <v>4</v>
@@ -5434,19 +5434,19 @@
         <v>52</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I207" s="1">
         <v>85</v>
@@ -5457,19 +5457,19 @@
         <v>52</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I208" s="1">
         <v>1224</v>
@@ -5480,19 +5480,19 @@
         <v>50</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I209" s="1">
         <v>117.5</v>
@@ -5503,19 +5503,19 @@
         <v>50</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I210" s="1">
         <v>23.5</v>
@@ -5526,19 +5526,19 @@
         <v>50</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I211" s="1">
         <v>476</v>
@@ -5549,19 +5549,19 @@
         <v>50</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I212" s="1">
         <v>1343.5</v>
@@ -5572,19 +5572,19 @@
         <v>50</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I213" s="1">
         <v>378</v>
@@ -5595,19 +5595,19 @@
         <v>50</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I214" s="1">
         <v>462.5</v>
@@ -5618,19 +5618,19 @@
         <v>53</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I215" s="1">
         <v>36.5</v>
@@ -5641,19 +5641,19 @@
         <v>53</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I216" s="1">
         <v>38</v>
@@ -5667,19 +5667,19 @@
         <v>53</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H217" s="1">
         <v>1</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="G218" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H218" s="1">
         <v>1</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="G219" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H219" s="1">
         <v>1</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="G220" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H220" s="1">
         <v>3</v>
@@ -5726,19 +5726,19 @@
         <v>53</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F221" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I221" s="1">
         <v>1978.5</v>
@@ -5749,19 +5749,19 @@
         <v>53</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H222" s="1">
         <v>3</v>
@@ -5772,16 +5772,16 @@
     </row>
     <row r="223" spans="1:9">
       <c r="D223" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H223" s="1">
         <v>2</v>
@@ -5792,16 +5792,16 @@
     </row>
     <row r="224" spans="1:9">
       <c r="D224" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I224" s="1">
         <v>429.5</v>
@@ -5809,16 +5809,16 @@
     </row>
     <row r="225" spans="1:9">
       <c r="D225" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I225" s="1">
         <v>449.5</v>
@@ -5826,16 +5826,16 @@
     </row>
     <row r="226" spans="1:9">
       <c r="D226" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I226" s="1">
         <v>441.5</v>
@@ -5846,16 +5846,16 @@
         <v>23</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F227" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I227" s="1">
         <v>39.5</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="G228" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I228" s="1">
         <v>6</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="G229" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H229" s="1">
         <v>6</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="230" spans="1:9">
       <c r="G230" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H230" s="1">
         <v>1</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="231" spans="1:9">
       <c r="C231" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H231" s="1">
         <v>3</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="232" spans="1:9">
       <c r="C232" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H232" s="1">
         <v>4</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="233" spans="1:9">
       <c r="C233" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H233" s="1">
         <v>2</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="234" spans="1:9">
       <c r="C234" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H234" s="1">
         <v>2</v>
@@ -5949,10 +5949,10 @@
     </row>
     <row r="235" spans="1:9">
       <c r="C235" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H235" s="1">
         <v>1</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="236" spans="1:9">
       <c r="C236" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H236" s="1">
         <v>1</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="237" spans="1:9">
       <c r="C237" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H237" s="1">
         <v>1</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="238" spans="1:9">
       <c r="C238" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H238" s="1">
         <v>12</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="239" spans="1:9">
       <c r="C239" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H239" s="1">
         <v>7</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="240" spans="1:9">
       <c r="C240" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H240" s="1">
         <v>10</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="241" spans="1:9">
       <c r="C241" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I241" s="1">
         <v>222.5</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="242" spans="1:9">
       <c r="C242" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H242" s="1">
         <v>6</v>
@@ -6058,10 +6058,10 @@
     </row>
     <row r="243" spans="1:9">
       <c r="C243" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H243" s="1">
         <v>5</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="244" spans="1:9">
       <c r="C244" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H244" s="1">
         <v>2</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="245" spans="1:9">
       <c r="C245" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H245" s="1">
         <v>2</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="246" spans="1:9">
       <c r="C246" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H246" s="1">
         <v>5</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="C247" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H247" s="1">
         <v>1</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="248" spans="1:9">
       <c r="C248" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H248" s="1">
         <v>2</v>
@@ -6145,10 +6145,10 @@
         <v>54</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H249" s="1">
         <v>2</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="250" spans="1:9">
       <c r="D250" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H250" s="1">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>54</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H251" s="1">
         <v>1</v>
@@ -6181,10 +6181,10 @@
         <v>54</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H252" s="1">
         <v>7</v>
@@ -6195,10 +6195,10 @@
         <v>54</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H253" s="1">
         <v>1</v>
@@ -6209,19 +6209,19 @@
         <v>55</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F254" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I254" s="1">
         <v>146</v>
@@ -6232,19 +6232,19 @@
         <v>55</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H255" s="1">
         <v>4</v>
@@ -6261,19 +6261,19 @@
         <v>55</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F256" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I256" s="1">
         <v>462.5</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="G257" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I257" s="1">
         <v>46.5</v>
@@ -6292,19 +6292,19 @@
         <v>56</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I258" s="1">
         <v>27</v>
@@ -6315,19 +6315,19 @@
         <v>56</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I259" s="1">
         <v>8</v>
@@ -6338,19 +6338,19 @@
         <v>56</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H260" s="1">
         <v>4</v>
@@ -6364,19 +6364,19 @@
         <v>56</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H261" s="1">
         <v>1</v>
@@ -6390,19 +6390,19 @@
         <v>56</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H262" s="1">
         <v>3</v>
@@ -6416,19 +6416,19 @@
         <v>56</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I263" s="1">
         <v>1.5</v>
@@ -6439,19 +6439,19 @@
         <v>56</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H264" s="1">
         <v>6</v>
@@ -6465,19 +6465,19 @@
         <v>56</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H265" s="1">
         <v>9</v>
@@ -6491,19 +6491,19 @@
         <v>56</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I266" s="1">
         <v>93.5</v>
@@ -6514,19 +6514,19 @@
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I267" s="1">
         <v>217</v>
@@ -6537,19 +6537,19 @@
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I268" s="1">
         <v>24</v>
@@ -6560,19 +6560,19 @@
         <v>57</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I269" s="1">
         <v>304.5</v>
@@ -6586,16 +6586,16 @@
         <v>58</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H270" s="1">
         <v>8</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="G271" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H271" s="1">
         <v>1</v>
@@ -6620,19 +6620,19 @@
         <v>59</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H272" s="1">
         <v>1</v>
@@ -6646,19 +6646,19 @@
         <v>59</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F273" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H273" s="1">
         <v>4</v>
@@ -6672,19 +6672,19 @@
         <v>59</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H274" s="1">
         <v>4</v>
@@ -6698,19 +6698,19 @@
         <v>59</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H275" s="1">
         <v>8</v>
@@ -6724,19 +6724,19 @@
         <v>59</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I276" s="1">
         <v>270.5</v>
@@ -6747,19 +6747,19 @@
         <v>59</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I277" s="1">
         <v>31</v>
@@ -6770,19 +6770,19 @@
         <v>59</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I278" s="1">
         <v>60.5</v>
@@ -6796,52 +6796,58 @@
         <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2</v>
       </c>
       <c r="I279" s="1">
-        <v>27.5</v>
+        <v>419.5</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="G280" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H280" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I280" s="1">
-        <v>10</v>
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="G281" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H281" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I281" s="1">
-        <v>60</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="G282" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="H282" s="1">
+        <v>5</v>
       </c>
       <c r="I282" s="1">
-        <v>555</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -6852,128 +6858,152 @@
         <v>59</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H283" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I283" s="1">
-        <v>419.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="G284" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H284" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I284" s="1">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="G285" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H285" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I285" s="1">
-        <v>136.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="G286" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H286" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I286" s="1">
-        <v>50.5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="1" t="s">
+      <c r="G287" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I287" s="1">
+        <v>492.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="B288" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I288" s="1">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="B289" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H289" s="1">
+        <v>2</v>
+      </c>
+      <c r="I289" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H287" s="1">
-        <v>5</v>
-      </c>
-      <c r="I287" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="G288" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H288" s="1">
-        <v>4</v>
-      </c>
-      <c r="I288" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="G289" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H289" s="1">
-        <v>1</v>
-      </c>
-      <c r="I289" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="B290" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="G290" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H290" s="1">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="I290" s="1">
-        <v>207</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="G291" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="H291" s="1">
+        <v>8</v>
       </c>
       <c r="I291" s="1">
-        <v>492.5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -6981,22 +7011,22 @@
         <v>60</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="I292" s="1">
-        <v>45.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -7004,25 +7034,22 @@
         <v>60</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H293" s="1">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="I293" s="1">
-        <v>38</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -7030,288 +7057,243 @@
         <v>60</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I294" s="1">
-        <v>168</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B295" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
+      </c>
+      <c r="H295" s="1">
+        <v>3</v>
       </c>
       <c r="I295" s="1">
-        <v>467</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="296" spans="1:9">
+      <c r="C296" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G296" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H296" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I296" s="1">
-        <v>511</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="B297" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="H297" s="1">
+        <v>1</v>
       </c>
       <c r="I297" s="1">
-        <v>68.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="B298" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="H298" s="1">
+        <v>1</v>
       </c>
       <c r="I298" s="1">
-        <v>27.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299" spans="1:9">
-      <c r="B299" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C299" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="H299" s="1">
+        <v>5</v>
       </c>
       <c r="I299" s="1">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C300" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H300" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I300" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:9">
+      <c r="B301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="G301" s="1" t="s">
         <v>201</v>
       </c>
       <c r="H301" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" s="1">
-        <v>0.5</v>
+        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:9">
+      <c r="B302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="G302" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H302" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" s="1">
-        <v>1</v>
+        <v>413</v>
       </c>
     </row>
     <row r="303" spans="1:9">
+      <c r="B303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G303" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H303" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I303" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="B304" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
+      </c>
+      <c r="H304" s="1">
+        <v>4</v>
       </c>
       <c r="I304" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="B305" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H305" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I305" s="1">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="306" spans="1:9">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B306" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H306" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I306" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:9">
-      <c r="B307" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G307" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="H307" s="1">
+        <v>1</v>
       </c>
       <c r="I307" s="1">
-        <v>18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -7319,22 +7301,22 @@
         <v>60</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I308" s="1">
-        <v>23.5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -7342,22 +7324,22 @@
         <v>60</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I309" s="1">
-        <v>22</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -7365,347 +7347,212 @@
         <v>60</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I310" s="1">
-        <v>192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B311" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H311" s="1">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="I311" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" spans="1:9">
+      <c r="B312" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="G312" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H312" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="B313" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E313" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F313" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G313" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H313" s="1">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="I313" s="1">
-        <v>452</v>
+        <v>168</v>
       </c>
     </row>
     <row r="314" spans="1:9">
+      <c r="A314" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B314" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F314" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F314" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G314" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H314" s="1">
         <v>1</v>
       </c>
       <c r="I314" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:9">
-      <c r="B315" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G315" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="H315" s="1">
+        <v>1</v>
       </c>
       <c r="I315" s="1">
-        <v>20.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="316" spans="1:9">
-      <c r="B316" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G316" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H316" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I316" s="1">
-        <v>892.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:9">
-      <c r="B317" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G317" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+      <c r="H317" s="1">
+        <v>1</v>
       </c>
       <c r="I317" s="1">
-        <v>182.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:9">
+      <c r="A318" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B318" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H318" s="1">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="I318" s="1">
-        <v>42</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="319" spans="1:9">
-      <c r="B319" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G319" s="1" t="s">
         <v>185</v>
       </c>
       <c r="H319" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I319" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:9">
-      <c r="B320" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G320" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H320" s="1">
         <v>1</v>
       </c>
       <c r="I320" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321" spans="7:9">
       <c r="G321" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H321" s="1">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="I321" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
-      <c r="G322" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H322" s="1">
-        <v>1</v>
-      </c>
-      <c r="I322" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="B323" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H323" s="1">
-        <v>1</v>
-      </c>
-      <c r="I323" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
-      <c r="B324" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H324" s="1">
-        <v>4</v>
-      </c>
-      <c r="I324" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
-      <c r="C325" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H325" s="1">
-        <v>2</v>
-      </c>
-      <c r="I325" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
-      <c r="C326" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H326" s="1">
-        <v>5</v>
-      </c>
-      <c r="I326" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
-      <c r="B327" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H327" s="1">
-        <v>1</v>
-      </c>
-      <c r="I327" s="1">
-        <v>7</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
